--- a/biology/Origine et évolution du vivant/Paraphylie/Paraphylie.xlsx
+++ b/biology/Origine et évolution du vivant/Paraphylie/Paraphylie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En systématique, un groupe est dit paraphylétique quand il ne rassemble pas tous les descendants d'une espèce souche qu'il contient[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En systématique, un groupe est dit paraphylétique quand il ne rassemble pas tous les descendants d'une espèce souche qu'il contient.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sens biologique
-Contrairement à la polyphylie, le groupe paraphylétique est fondé sur une similitude héritée d'un ancêtre commun (homologie). [réf. souhaitée] L'exclusion de certaines lignées nécessite de considérer les états ancestraux de certains caractères (encore appelé symplésiomorphie) par opposition à leurs états dérivés (ou synapomorphie) dans les lignées exclues.
+          <t>Sens biologique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à la polyphylie, le groupe paraphylétique est fondé sur une similitude héritée d'un ancêtre commun (homologie). [réf. souhaitée] L'exclusion de certaines lignées nécessite de considérer les états ancestraux de certains caractères (encore appelé symplésiomorphie) par opposition à leurs états dérivés (ou synapomorphie) dans les lignées exclues.
 Le groupe des reptiles (amniotes desquels ont été exclus les oiseaux et les mammifères) en est un exemple : les crocodiliens, inclus dans les reptiles, sont généalogiquement plus proches des oiseaux, exclus des reptiles, que des autres sauropsides (chéloniens, squamates et sphénodontiens) et les reptiles mammaliens, inclus, sont plus proches des mammifères, exclus, que des autres amniotes. L'ancêtre commun le plus proche de tous les reptiles est également l'ancêtre commun le plus proche des oiseaux, des mammifères et des reptiles. Le groupe des reptiles ainsi défini est donc paraphylétique.
     amniotes
        ├─Synapsides
@@ -533,9 +550,6 @@
                      ├─Crocodiliens--------|
                      └─Oiseaux
 Note : Les crustacés, les amphibiens ou les poissons sont d'autres exemples de groupes paraphylétiques.
-Propriétés mathématiques
-En théorie des graphes, on peut définir le « degré de paraphylie » d'un groupe comme étant le nombre minimum de branches qu'il faudrait retirer à un groupe holophylétique[1]. Un groupe holophylétique a donc un degré de paraphylie de zéro.
-La définition traditionnelle des reptiles (sauropsides + synapsides) en fait un groupe ayant un degré de paraphylie de 2, puisqu'il faut retirer au groupe des amniotes la branche des mammifères et celle des oiseaux.
 </t>
         </is>
       </c>
@@ -561,10 +575,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Propriétés mathématiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En théorie des graphes, on peut définir le « degré de paraphylie » d'un groupe comme étant le nombre minimum de branches qu'il faudrait retirer à un groupe holophylétique. Un groupe holophylétique a donc un degré de paraphylie de zéro.
+La définition traditionnelle des reptiles (sauropsides + synapsides) en fait un groupe ayant un degré de paraphylie de 2, puisqu'il faut retirer au groupe des amniotes la branche des mammifères et celle des oiseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paraphylie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paraphylie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les procaryotes (excluent les eucaryotes)
 Les microorganismes
@@ -583,31 +637,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Paraphylie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paraphylie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Statut de la paraphylie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les cladistes, les taxons paraphylétiques sont inacceptables dans la classification. Au contraire pour les évolutionnistes il n'y a aucun problème dans le fait d'accepter de tels taxons. Selon la définition qui en est donnée (voir l'article Monophylie), la paraphylie est parfois considérée comme une forme de monophylie.
 </t>
